--- a/source_models/zones/2018_mw/oq_job_tracking.xlsx
+++ b/source_models/zones/2018_mw/oq_job_tracking.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tallen/Documents/Geoscience_Australia/NSHA2018/source_models/zones/2018_mw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693DF68B-D3B9-0C48-9C60-3FFDE6F46E40}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="24915" windowHeight="12840"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="27980" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Run</t>
   </si>
@@ -45,9 +51,6 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>jobfs</t>
-  </si>
-  <si>
     <t>ARUP collapsed</t>
   </si>
   <si>
@@ -55,19 +58,37 @@
   </si>
   <si>
     <t>ARUP Background collapsed</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>MEM Used</t>
+  </si>
+  <si>
+    <t>JobFS used</t>
+  </si>
+  <si>
+    <t>JobFS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,10 +111,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -103,6 +126,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -151,7 +177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,9 +210,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,6 +262,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,20 +454,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,18 +486,24 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -449,19 +517,19 @@
       <c r="E2">
         <v>2048</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>300</v>
       </c>
-      <c r="G2" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="I2" s="3">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2">
         <v>0.81</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -475,13 +543,28 @@
       <c r="E3">
         <v>2048</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
+        <v>231.76</v>
+      </c>
+      <c r="G3">
         <v>500</v>
       </c>
+      <c r="H3">
+        <v>12.26</v>
+      </c>
+      <c r="I3" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>0.66666666666666663</v>
@@ -492,13 +575,13 @@
       <c r="E4">
         <v>2048</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>0.66666666666666663</v>
@@ -509,34 +592,35 @@
       <c r="E5">
         <v>2048</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source_models/zones/2018_mw/oq_job_tracking.xlsx
+++ b/source_models/zones/2018_mw/oq_job_tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tallen/Documents/Geoscience_Australia/NSHA2018/source_models/zones/2018_mw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693DF68B-D3B9-0C48-9C60-3FFDE6F46E40}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E56511-17E3-B440-B7B9-9B78F7558B3E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="27980" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="28680" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Run</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>JobFS</t>
+  </si>
+  <si>
+    <t>Branches</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>qdel</t>
   </si>
 </sst>
 </file>
@@ -455,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -469,7 +478,7 @@
     <col min="9" max="9" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,8 +509,14 @@
       <c r="J1" t="s">
         <v>5</v>
       </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -526,8 +541,11 @@
       <c r="J2" s="2">
         <v>0.81</v>
       </c>
+      <c r="K2">
+        <v>500</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -558,8 +576,11 @@
       <c r="J3" t="s">
         <v>12</v>
       </c>
+      <c r="K3">
+        <v>500</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -578,8 +599,20 @@
       <c r="G4">
         <v>500</v>
       </c>
+      <c r="I4" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="K4">
+        <v>500</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -594,6 +627,30 @@
       </c>
       <c r="G5">
         <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D6">
+        <v>256</v>
+      </c>
+      <c r="E6">
+        <v>2048</v>
+      </c>
+      <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/source_models/zones/2018_mw/oq_job_tracking.xlsx
+++ b/source_models/zones/2018_mw/oq_job_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tallen/Documents/Geoscience_Australia/NSHA2018/source_models/zones/2018_mw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E56511-17E3-B440-B7B9-9B78F7558B3E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DB9C35-8B26-114F-AAD5-63A171729B4F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="460" windowWidth="28680" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Run</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>qdel</t>
+  </si>
+  <si>
+    <t>Site Discretisation</t>
   </si>
 </sst>
 </file>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -478,7 +481,7 @@
     <col min="9" max="9" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,8 +518,11 @@
       <c r="L1" t="s">
         <v>17</v>
       </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -545,7 +551,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -579,8 +585,11 @@
       <c r="K3">
         <v>500</v>
       </c>
+      <c r="M3">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -611,8 +620,11 @@
       <c r="L4" t="s">
         <v>18</v>
       </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -628,19 +640,19 @@
       <c r="G5">
         <v>500</v>
       </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
       <c r="C6" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="D6">
-        <v>256</v>
+        <v>496</v>
       </c>
       <c r="E6">
         <v>2048</v>
@@ -651,6 +663,9 @@
       <c r="J6" s="2"/>
       <c r="K6">
         <v>0</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/source_models/zones/2018_mw/oq_job_tracking.xlsx
+++ b/source_models/zones/2018_mw/oq_job_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tallen/Documents/Geoscience_Australia/NSHA2018/source_models/zones/2018_mw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DB9C35-8B26-114F-AAD5-63A171729B4F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99BE3C50-8286-A04E-8992-C8215445AD62}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="460" windowWidth="28680" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,11 +18,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Run</t>
   </si>
@@ -42,12 +43,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>oq512c512h</t>
-  </si>
-  <si>
-    <t>oq512c512ht</t>
-  </si>
-  <si>
     <t>Duration</t>
   </si>
   <si>
@@ -82,6 +77,9 @@
   </si>
   <si>
     <t>Site Discretisation</t>
+  </si>
+  <si>
+    <t>PGA</t>
   </si>
 </sst>
 </file>
@@ -467,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -498,36 +496,33 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
         <v>17</v>
-      </c>
-      <c r="M1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>0.33333333333333331</v>
@@ -553,10 +548,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>0.66666666666666663</v>
@@ -580,7 +572,7 @@
         <v>9.4</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K3">
         <v>500</v>
@@ -591,9 +583,6 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1">
@@ -618,7 +607,7 @@
         <v>500</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M4">
         <v>10</v>
@@ -626,7 +615,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>0.66666666666666663</v>
@@ -639,6 +628,9 @@
       </c>
       <c r="G5">
         <v>500</v>
+      </c>
+      <c r="I5" s="3">
+        <v>16</v>
       </c>
       <c r="M5">
         <v>10</v>
@@ -646,7 +638,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>0.66666666666666663</v>
@@ -666,6 +658,47 @@
       </c>
       <c r="M6">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>5039046</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D7" s="4">
+        <v>256</v>
+      </c>
+      <c r="E7">
+        <v>512</v>
+      </c>
+      <c r="F7">
+        <v>54</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+      <c r="H7">
+        <v>4.5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/source_models/zones/2018_mw/oq_job_tracking.xlsx
+++ b/source_models/zones/2018_mw/oq_job_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tallen/Documents/Geoscience_Australia/NSHA2018/source_models/zones/2018_mw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99BE3C50-8286-A04E-8992-C8215445AD62}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F03DBBE-C88B-3A42-A320-5BF879C384DF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="460" windowWidth="28680" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Run</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>PGA</t>
+  </si>
+  <si>
+    <t>All T</t>
+  </si>
+  <si>
+    <t>csv</t>
   </si>
 </sst>
 </file>
@@ -465,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -545,6 +551,9 @@
       <c r="K2">
         <v>500</v>
       </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -577,6 +586,9 @@
       <c r="K3">
         <v>500</v>
       </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
       <c r="M3">
         <v>15</v>
       </c>
@@ -632,6 +644,9 @@
       <c r="I5" s="3">
         <v>16</v>
       </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
       <c r="M5">
         <v>10</v>
       </c>
@@ -656,6 +671,9 @@
       <c r="K6">
         <v>0</v>
       </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
       <c r="M6">
         <v>10</v>
       </c>
@@ -697,8 +715,54 @@
       <c r="L7" t="s">
         <v>18</v>
       </c>
-      <c r="M7">
-        <v>15</v>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="D8">
+        <v>256</v>
+      </c>
+      <c r="E8">
+        <v>256</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="D9">
+        <v>256</v>
+      </c>
+      <c r="E9">
+        <v>256</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
